--- a/data/pca/factorExposure/factorExposure_2009-06-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01692384679203678</v>
+        <v>0.0163700759714847</v>
       </c>
       <c r="C2">
-        <v>-0.001506077674798104</v>
+        <v>0.001043204811773069</v>
       </c>
       <c r="D2">
-        <v>-0.009431832351246727</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.009213444851851594</v>
+      </c>
+      <c r="E2">
+        <v>0.001716829133992912</v>
+      </c>
+      <c r="F2">
+        <v>-0.0117868226072726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08974088896888843</v>
+        <v>0.09191833713326883</v>
       </c>
       <c r="C4">
-        <v>-0.02029425583290497</v>
+        <v>0.01543148454626101</v>
       </c>
       <c r="D4">
-        <v>-0.07707014913745956</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.08194244299259996</v>
+      </c>
+      <c r="E4">
+        <v>0.02756090273721123</v>
+      </c>
+      <c r="F4">
+        <v>0.032737135604467</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>6.72608699002802e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>8.273686045559846e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>9.617700277320586e-05</v>
+      </c>
+      <c r="E5">
+        <v>-3.195153406611705e-05</v>
+      </c>
+      <c r="F5">
+        <v>-7.579107327620008e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1528824754756306</v>
+        <v>0.1614708956095931</v>
       </c>
       <c r="C6">
-        <v>-0.03055785248577076</v>
+        <v>0.02971688216708379</v>
       </c>
       <c r="D6">
-        <v>0.03578877687732801</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02609516597630577</v>
+      </c>
+      <c r="E6">
+        <v>0.008915282745613103</v>
+      </c>
+      <c r="F6">
+        <v>0.04068283389388652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06054327919580756</v>
+        <v>0.06271979853366048</v>
       </c>
       <c r="C7">
-        <v>-0.002239006902998464</v>
+        <v>-0.001057386808074114</v>
       </c>
       <c r="D7">
-        <v>-0.0482574956251976</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05376871923320978</v>
+      </c>
+      <c r="E7">
+        <v>0.01536881202768828</v>
+      </c>
+      <c r="F7">
+        <v>0.04963297480025748</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06129690672343234</v>
+        <v>0.05692118167641613</v>
       </c>
       <c r="C8">
-        <v>0.009941276435752303</v>
+        <v>-0.01185154760519169</v>
       </c>
       <c r="D8">
-        <v>-0.02572446737998122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03025055651235207</v>
+      </c>
+      <c r="E8">
+        <v>0.01772850469340045</v>
+      </c>
+      <c r="F8">
+        <v>-0.0282922147756673</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06969298163691555</v>
+        <v>0.07139736680049659</v>
       </c>
       <c r="C9">
-        <v>-0.01618571899150381</v>
+        <v>0.01090440547852151</v>
       </c>
       <c r="D9">
-        <v>-0.07974767154339522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.08569957805254393</v>
+      </c>
+      <c r="E9">
+        <v>0.02468273795980078</v>
+      </c>
+      <c r="F9">
+        <v>0.04940678415684227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08501132903999287</v>
+        <v>0.08670220446380632</v>
       </c>
       <c r="C10">
-        <v>-0.01625352382193928</v>
+        <v>0.02173121596371243</v>
       </c>
       <c r="D10">
-        <v>0.166580910894389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1595974689644591</v>
+      </c>
+      <c r="E10">
+        <v>-0.03188139974262003</v>
+      </c>
+      <c r="F10">
+        <v>-0.05871132618101179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09091946375339716</v>
+        <v>0.08772911900273768</v>
       </c>
       <c r="C11">
-        <v>-0.01748824356772635</v>
+        <v>0.01212628701404072</v>
       </c>
       <c r="D11">
-        <v>-0.1112888142130028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.1179155914849565</v>
+      </c>
+      <c r="E11">
+        <v>0.0497570309902469</v>
+      </c>
+      <c r="F11">
+        <v>0.02653608658282304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09691009826177611</v>
+        <v>0.09081949429774762</v>
       </c>
       <c r="C12">
-        <v>-0.01589410099320161</v>
+        <v>0.009653974114398778</v>
       </c>
       <c r="D12">
-        <v>-0.1180584800812663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.1328353545837603</v>
+      </c>
+      <c r="E12">
+        <v>0.04903448891364309</v>
+      </c>
+      <c r="F12">
+        <v>0.0325300693994549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04478301148702054</v>
+        <v>0.0436808407718539</v>
       </c>
       <c r="C13">
-        <v>-0.006775686192684509</v>
+        <v>0.00290995039029508</v>
       </c>
       <c r="D13">
-        <v>-0.0444807141637058</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.05416996517125138</v>
+      </c>
+      <c r="E13">
+        <v>-0.0002795172991189835</v>
+      </c>
+      <c r="F13">
+        <v>0.004603812187395641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01966810424161069</v>
+        <v>0.02345756071647155</v>
       </c>
       <c r="C14">
-        <v>-0.01529277654888841</v>
+        <v>0.0140490607987134</v>
       </c>
       <c r="D14">
-        <v>-0.03139764637510167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03268645543611121</v>
+      </c>
+      <c r="E14">
+        <v>0.02003608901401948</v>
+      </c>
+      <c r="F14">
+        <v>0.01272932888466383</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03475664457881219</v>
+        <v>0.03465365959960424</v>
       </c>
       <c r="C15">
-        <v>-0.007807200582097597</v>
+        <v>0.005949642327645463</v>
       </c>
       <c r="D15">
-        <v>-0.04575121760542037</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.04665351659035315</v>
+      </c>
+      <c r="E15">
+        <v>0.008708238557323934</v>
+      </c>
+      <c r="F15">
+        <v>0.02970781064330856</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0751386289456287</v>
+        <v>0.0724763167154294</v>
       </c>
       <c r="C16">
-        <v>-0.007848499419913831</v>
+        <v>0.00210378749304559</v>
       </c>
       <c r="D16">
-        <v>-0.1148803506892554</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.1290094061283446</v>
+      </c>
+      <c r="E16">
+        <v>0.06385646124429123</v>
+      </c>
+      <c r="F16">
+        <v>0.02955384622756593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001128011821126255</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0003544019265962036</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>0.002033413039137596</v>
+      </c>
+      <c r="E17">
+        <v>0.001540548308195952</v>
+      </c>
+      <c r="F17">
+        <v>-0.002248176632124769</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02465591179652922</v>
+        <v>0.04220465672671127</v>
       </c>
       <c r="C18">
-        <v>0.00181056210309298</v>
+        <v>-0.001841554586753373</v>
       </c>
       <c r="D18">
-        <v>-0.02232564230060666</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>0.01591900662778066</v>
+      </c>
+      <c r="E18">
+        <v>-0.005711994913205007</v>
+      </c>
+      <c r="F18">
+        <v>-0.009182868881916681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06473453725783307</v>
+        <v>0.06305299651941211</v>
       </c>
       <c r="C20">
-        <v>-0.005808813268726911</v>
+        <v>0.001795275060243557</v>
       </c>
       <c r="D20">
-        <v>-0.07235871724355179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.07910740061270875</v>
+      </c>
+      <c r="E20">
+        <v>0.06058966050621675</v>
+      </c>
+      <c r="F20">
+        <v>0.03026604343563634</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04126401545866541</v>
+        <v>0.04263289137225971</v>
       </c>
       <c r="C21">
-        <v>-0.01000856155474601</v>
+        <v>0.00725062105043685</v>
       </c>
       <c r="D21">
-        <v>-0.03257021617695537</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.03553843082936716</v>
+      </c>
+      <c r="E21">
+        <v>0.001287441564701124</v>
+      </c>
+      <c r="F21">
+        <v>-0.02411382212881961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04057987593784369</v>
+        <v>0.04242009562030129</v>
       </c>
       <c r="C22">
-        <v>-0.001286326674339358</v>
+        <v>0.0009501663213583886</v>
       </c>
       <c r="D22">
-        <v>-0.001225768410265757</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.0070014196943597</v>
+      </c>
+      <c r="E22">
+        <v>0.03713375923933809</v>
+      </c>
+      <c r="F22">
+        <v>-0.04792191037952032</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04053500547329691</v>
+        <v>0.0423893013899732</v>
       </c>
       <c r="C23">
-        <v>-0.001272612573764073</v>
+        <v>0.0009385853356155969</v>
       </c>
       <c r="D23">
-        <v>-0.001254701936701116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.007016219707257495</v>
+      </c>
+      <c r="E23">
+        <v>0.03716207452178136</v>
+      </c>
+      <c r="F23">
+        <v>-0.04797553184843723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08251083502477724</v>
+        <v>0.07848919152663689</v>
       </c>
       <c r="C24">
-        <v>-0.008561453019088791</v>
+        <v>0.003019177958910888</v>
       </c>
       <c r="D24">
-        <v>-0.1151869907931505</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.1210126048836771</v>
+      </c>
+      <c r="E24">
+        <v>0.05144134343764631</v>
+      </c>
+      <c r="F24">
+        <v>0.03217747062294059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08682004507745507</v>
+        <v>0.08329859143472862</v>
       </c>
       <c r="C25">
-        <v>-0.01074293117525032</v>
+        <v>0.005700279349298798</v>
       </c>
       <c r="D25">
-        <v>-0.1031539003838334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.1101793023122967</v>
+      </c>
+      <c r="E25">
+        <v>0.03426279837957437</v>
+      </c>
+      <c r="F25">
+        <v>0.0292067187243438</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05814980938434133</v>
+        <v>0.06097202009070306</v>
       </c>
       <c r="C26">
-        <v>-0.01844641533435715</v>
+        <v>0.01522677420808707</v>
       </c>
       <c r="D26">
-        <v>-0.0346143293747093</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.04457152067902892</v>
+      </c>
+      <c r="E26">
+        <v>0.03182282384032038</v>
+      </c>
+      <c r="F26">
+        <v>-0.006756120987072148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1339191808227756</v>
+        <v>0.1430047190477588</v>
       </c>
       <c r="C28">
-        <v>-0.01568134155506665</v>
+        <v>0.0238833735372922</v>
       </c>
       <c r="D28">
-        <v>0.2658423994229942</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2595161070448541</v>
+      </c>
+      <c r="E28">
+        <v>-0.0660512664046146</v>
+      </c>
+      <c r="F28">
+        <v>0.004390192658170986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02609165961968673</v>
+        <v>0.02864047666737516</v>
       </c>
       <c r="C29">
-        <v>-0.010076669556916</v>
+        <v>0.009269500443609727</v>
       </c>
       <c r="D29">
-        <v>-0.02912290338560374</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02994291881876806</v>
+      </c>
+      <c r="E29">
+        <v>0.01760336132014541</v>
+      </c>
+      <c r="F29">
+        <v>-0.01257626517510027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05896597685522424</v>
+        <v>0.05604972773851977</v>
       </c>
       <c r="C30">
-        <v>-0.007955505617022171</v>
+        <v>0.002859498845490827</v>
       </c>
       <c r="D30">
-        <v>-0.07926284860102578</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08727330450670055</v>
+      </c>
+      <c r="E30">
+        <v>0.01229661683647208</v>
+      </c>
+      <c r="F30">
+        <v>0.07855326504086053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05085808761861173</v>
+        <v>0.05116162395123861</v>
       </c>
       <c r="C31">
-        <v>-0.01778527186417949</v>
+        <v>0.01645582232622982</v>
       </c>
       <c r="D31">
-        <v>-0.02135779360087513</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.02416535576890948</v>
+      </c>
+      <c r="E31">
+        <v>0.02904224919540399</v>
+      </c>
+      <c r="F31">
+        <v>-0.0007037841603198646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04812652215531747</v>
+        <v>0.05173288255220368</v>
       </c>
       <c r="C32">
-        <v>-0.002344068274280435</v>
+        <v>-0.001020608881579609</v>
       </c>
       <c r="D32">
-        <v>-0.02847736190811396</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.03363457823028762</v>
+      </c>
+      <c r="E32">
+        <v>0.03472729059831001</v>
+      </c>
+      <c r="F32">
+        <v>0.00296011619584728</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09106160661009695</v>
+        <v>0.09037707807180693</v>
       </c>
       <c r="C33">
-        <v>-0.01407110689258256</v>
+        <v>0.008085640215434519</v>
       </c>
       <c r="D33">
-        <v>-0.09021422481126602</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1040513068599509</v>
+      </c>
+      <c r="E33">
+        <v>0.04683313939715113</v>
+      </c>
+      <c r="F33">
+        <v>0.0442230941477585</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06931871783296951</v>
+        <v>0.06743905852869872</v>
       </c>
       <c r="C34">
-        <v>-0.01597284529888433</v>
+        <v>0.01115899988423299</v>
       </c>
       <c r="D34">
-        <v>-0.09672987243621047</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.1087580469121095</v>
+      </c>
+      <c r="E34">
+        <v>0.03708147430564233</v>
+      </c>
+      <c r="F34">
+        <v>0.03620679568063195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02579590701002376</v>
+        <v>0.0272623607024669</v>
       </c>
       <c r="C35">
-        <v>-0.004154287039000244</v>
+        <v>0.003627947231049604</v>
       </c>
       <c r="D35">
-        <v>-0.008082219591754453</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01156512981706589</v>
+      </c>
+      <c r="E35">
+        <v>0.01506945097432068</v>
+      </c>
+      <c r="F35">
+        <v>0.000453731078767974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02534276178685322</v>
+        <v>0.02889314036089183</v>
       </c>
       <c r="C36">
-        <v>-0.008339446889671427</v>
+        <v>0.007245453386335033</v>
       </c>
       <c r="D36">
-        <v>-0.03836829955300249</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.03967557473078782</v>
+      </c>
+      <c r="E36">
+        <v>0.01886052712498564</v>
+      </c>
+      <c r="F36">
+        <v>0.01566490351564232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001958053385986459</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006297475869865879</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.003141982594323311</v>
+      </c>
+      <c r="E37">
+        <v>0.0001956896606264264</v>
+      </c>
+      <c r="F37">
+        <v>-0.001548603675937378</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1107300488256807</v>
+        <v>0.09965085290507623</v>
       </c>
       <c r="C39">
-        <v>-0.0234110958196056</v>
+        <v>0.01682735533268269</v>
       </c>
       <c r="D39">
-        <v>-0.1481199271721139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.1515471187447891</v>
+      </c>
+      <c r="E39">
+        <v>0.06092925232951627</v>
+      </c>
+      <c r="F39">
+        <v>0.02278087515897348</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03897898284700391</v>
+        <v>0.04413254395409778</v>
       </c>
       <c r="C40">
-        <v>-0.009640567495490292</v>
+        <v>0.008176857742991785</v>
       </c>
       <c r="D40">
-        <v>-0.0234864194219465</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03275297234760582</v>
+      </c>
+      <c r="E40">
+        <v>0.002927384105496342</v>
+      </c>
+      <c r="F40">
+        <v>-0.0153009046501134</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02449536714024692</v>
+        <v>0.02647978340041946</v>
       </c>
       <c r="C41">
-        <v>-0.007480686854142815</v>
+        <v>0.006886111244088852</v>
       </c>
       <c r="D41">
-        <v>-0.007865078202612523</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.009836629868661233</v>
+      </c>
+      <c r="E41">
+        <v>0.0125622610683017</v>
+      </c>
+      <c r="F41">
+        <v>-0.00725677577682177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04129568093513249</v>
+        <v>0.03957530702652318</v>
       </c>
       <c r="C43">
-        <v>-0.008513661104582152</v>
+        <v>0.007779620008085234</v>
       </c>
       <c r="D43">
-        <v>-0.016742153619755</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.01900631842770441</v>
+      </c>
+      <c r="E43">
+        <v>0.02645937934172541</v>
+      </c>
+      <c r="F43">
+        <v>-0.01562311033427538</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06813416183444751</v>
+        <v>0.077704626409802</v>
       </c>
       <c r="C44">
-        <v>-0.02447144210025015</v>
+        <v>0.02034421170531026</v>
       </c>
       <c r="D44">
-        <v>-0.09481114448183975</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09588640380298689</v>
+      </c>
+      <c r="E44">
+        <v>0.06208975613812815</v>
+      </c>
+      <c r="F44">
+        <v>0.1691959211575787</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02162183734599163</v>
+        <v>0.0242185029005313</v>
       </c>
       <c r="C46">
-        <v>-0.004612727399285537</v>
+        <v>0.003802412279825594</v>
       </c>
       <c r="D46">
-        <v>-0.008083262022934273</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01210857100153947</v>
+      </c>
+      <c r="E46">
+        <v>0.03002096471226619</v>
+      </c>
+      <c r="F46">
+        <v>-0.004365105290526576</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05360543372727307</v>
+        <v>0.05278473931122408</v>
       </c>
       <c r="C47">
-        <v>-0.005732485283090151</v>
+        <v>0.004745407447449451</v>
       </c>
       <c r="D47">
-        <v>-0.00708524738970146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01070368815428744</v>
+      </c>
+      <c r="E47">
+        <v>0.02415150051671532</v>
+      </c>
+      <c r="F47">
+        <v>-0.03135046580727564</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04853160410415236</v>
+        <v>0.05122439115193896</v>
       </c>
       <c r="C48">
-        <v>-0.005393023582650907</v>
+        <v>0.00269788520383066</v>
       </c>
       <c r="D48">
-        <v>-0.04703354284967946</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.05002140961728439</v>
+      </c>
+      <c r="E48">
+        <v>-0.003637616630252351</v>
+      </c>
+      <c r="F48">
+        <v>0.01278549944499622</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1985809241048366</v>
+        <v>0.2000932551941811</v>
       </c>
       <c r="C49">
-        <v>-0.02397757547931751</v>
+        <v>0.02194954038340329</v>
       </c>
       <c r="D49">
-        <v>0.01291591957459428</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.004537149174727219</v>
+      </c>
+      <c r="E49">
+        <v>0.03018852297698482</v>
+      </c>
+      <c r="F49">
+        <v>0.04927773229416835</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04944642428080696</v>
+        <v>0.05129046601678465</v>
       </c>
       <c r="C50">
-        <v>-0.01342553693695736</v>
+        <v>0.01206570537585164</v>
       </c>
       <c r="D50">
-        <v>-0.02073593169009616</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.02366997968680995</v>
+      </c>
+      <c r="E50">
+        <v>0.03146598820983129</v>
+      </c>
+      <c r="F50">
+        <v>0.009794821871841653</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1547142727194998</v>
+        <v>0.1478517478102868</v>
       </c>
       <c r="C52">
-        <v>-0.02177643205867346</v>
+        <v>0.01966127721779304</v>
       </c>
       <c r="D52">
-        <v>-0.0418431233683088</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>0.04286920940648266</v>
+      </c>
+      <c r="E52">
+        <v>0.02032806836818141</v>
+      </c>
+      <c r="F52">
+        <v>0.04202250796874483</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.174087083555378</v>
+        <v>0.1684182993738424</v>
       </c>
       <c r="C53">
-        <v>-0.02289299848780931</v>
+        <v>0.02283121621982144</v>
       </c>
       <c r="D53">
-        <v>-0.005769382887964996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.006142969798167968</v>
+      </c>
+      <c r="E53">
+        <v>0.02697593483604628</v>
+      </c>
+      <c r="F53">
+        <v>0.07505735557781601</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01722773886182949</v>
+        <v>0.01945035489873748</v>
       </c>
       <c r="C54">
-        <v>-0.01222346627969759</v>
+        <v>0.01109930267699461</v>
       </c>
       <c r="D54">
-        <v>-0.03031829061841777</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03041008839638911</v>
+      </c>
+      <c r="E54">
+        <v>0.02229267562801614</v>
+      </c>
+      <c r="F54">
+        <v>-0.001981036979712128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1183922991036448</v>
+        <v>0.1166474874930911</v>
       </c>
       <c r="C55">
-        <v>-0.02017905296310665</v>
+        <v>0.02009499522013442</v>
       </c>
       <c r="D55">
-        <v>-0.004670953997896876</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.008572617726957981</v>
+      </c>
+      <c r="E55">
+        <v>0.0259738483627753</v>
+      </c>
+      <c r="F55">
+        <v>0.04673343574500689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1807751888065689</v>
+        <v>0.1758015801537219</v>
       </c>
       <c r="C56">
-        <v>-0.02109436713179014</v>
+        <v>0.02120155097250896</v>
       </c>
       <c r="D56">
-        <v>0.006373861415960698</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.002360908601854407</v>
+      </c>
+      <c r="E56">
+        <v>0.03141806234295518</v>
+      </c>
+      <c r="F56">
+        <v>0.05580920734641492</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04640925902266058</v>
+        <v>0.04504363200552558</v>
       </c>
       <c r="C58">
-        <v>-0.00497040570135891</v>
+        <v>6.02311867970705e-05</v>
       </c>
       <c r="D58">
-        <v>-0.06599575451514886</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.07640611255864382</v>
+      </c>
+      <c r="E58">
+        <v>0.03537496249640531</v>
+      </c>
+      <c r="F58">
+        <v>-0.03622800173637662</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1602358176794917</v>
+        <v>0.1668710875774128</v>
       </c>
       <c r="C59">
-        <v>-0.01763345776390856</v>
+        <v>0.02436605884450808</v>
       </c>
       <c r="D59">
-        <v>0.2249836762974219</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.2173289575440804</v>
+      </c>
+      <c r="E59">
+        <v>-0.04980820202653209</v>
+      </c>
+      <c r="F59">
+        <v>-0.04228185229066184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2377635059462891</v>
+        <v>0.2298848702112006</v>
       </c>
       <c r="C60">
-        <v>-0.005273586029211753</v>
+        <v>0.002051212054591091</v>
       </c>
       <c r="D60">
-        <v>-0.03602137662069495</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.03851531182195615</v>
+      </c>
+      <c r="E60">
+        <v>0.001101833650811416</v>
+      </c>
+      <c r="F60">
+        <v>0.005752935439186972</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08106945229631778</v>
+        <v>0.07422018979665206</v>
       </c>
       <c r="C61">
-        <v>-0.01698531658350897</v>
+        <v>0.01144071824499702</v>
       </c>
       <c r="D61">
-        <v>-0.1105406799706449</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.1167269314767095</v>
+      </c>
+      <c r="E61">
+        <v>0.0386004264239119</v>
+      </c>
+      <c r="F61">
+        <v>0.00810372225578959</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1728921086286312</v>
+        <v>0.1690722749444282</v>
       </c>
       <c r="C62">
-        <v>-0.02481135283124676</v>
+        <v>0.02385545417799241</v>
       </c>
       <c r="D62">
-        <v>-0.0007243841302216571</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.006537757049048974</v>
+      </c>
+      <c r="E62">
+        <v>0.03362966952797921</v>
+      </c>
+      <c r="F62">
+        <v>0.04145729721739246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04182118676428409</v>
+        <v>0.04606514068467249</v>
       </c>
       <c r="C63">
-        <v>-0.005788120188909171</v>
+        <v>0.002405794290649586</v>
       </c>
       <c r="D63">
-        <v>-0.0493642754910439</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.05998146296853295</v>
+      </c>
+      <c r="E63">
+        <v>0.02393133139196972</v>
+      </c>
+      <c r="F63">
+        <v>0.0009580123678174175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1144257531167265</v>
+        <v>0.1111976013021608</v>
       </c>
       <c r="C64">
-        <v>-0.01712416296417973</v>
+        <v>0.01380388770907675</v>
       </c>
       <c r="D64">
-        <v>-0.03336603416254506</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.04153566259244675</v>
+      </c>
+      <c r="E64">
+        <v>0.02457836511046124</v>
+      </c>
+      <c r="F64">
+        <v>0.02739779096232726</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1447793031286313</v>
+        <v>0.1520520089796789</v>
       </c>
       <c r="C65">
-        <v>-0.03699871559640652</v>
+        <v>0.03666107372026049</v>
       </c>
       <c r="D65">
-        <v>0.05812593888380833</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04556066206022178</v>
+      </c>
+      <c r="E65">
+        <v>0.004237237483578611</v>
+      </c>
+      <c r="F65">
+        <v>0.03754271573101391</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1330835630198105</v>
+        <v>0.1194553580042858</v>
       </c>
       <c r="C66">
-        <v>-0.02185450156294341</v>
+        <v>0.01505022556665899</v>
       </c>
       <c r="D66">
-        <v>-0.1314294292651586</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1408555320820644</v>
+      </c>
+      <c r="E66">
+        <v>0.06507424829864347</v>
+      </c>
+      <c r="F66">
+        <v>0.02862568818754515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06331147935318299</v>
+        <v>0.05600843791550458</v>
       </c>
       <c r="C67">
-        <v>-0.006410610379677838</v>
+        <v>0.004008361640495776</v>
       </c>
       <c r="D67">
-        <v>-0.05515924102305508</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.05849391600133857</v>
+      </c>
+      <c r="E67">
+        <v>0.02102883982288734</v>
+      </c>
+      <c r="F67">
+        <v>-0.03420827351133898</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1074042677415195</v>
+        <v>0.1174785686907672</v>
       </c>
       <c r="C68">
-        <v>-0.02573681185024217</v>
+        <v>0.03467433928470423</v>
       </c>
       <c r="D68">
-        <v>0.2643281291438087</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2609197247887176</v>
+      </c>
+      <c r="E68">
+        <v>-0.08783776574989201</v>
+      </c>
+      <c r="F68">
+        <v>0.0001591156929861537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03858442990733845</v>
+        <v>0.03766219626428972</v>
       </c>
       <c r="C69">
-        <v>-0.002356048706846229</v>
+        <v>0.001461868215054213</v>
       </c>
       <c r="D69">
-        <v>-0.006722831721694041</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008252697961890166</v>
+      </c>
+      <c r="E69">
+        <v>0.0256515416504598</v>
+      </c>
+      <c r="F69">
+        <v>-3.402060331385495e-05</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06726748272716501</v>
+        <v>0.06711923008103861</v>
       </c>
       <c r="C70">
-        <v>0.02411277779191525</v>
+        <v>-0.02631882693329405</v>
       </c>
       <c r="D70">
-        <v>-0.02204391201016709</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.0271658007539152</v>
+      </c>
+      <c r="E70">
+        <v>-0.02426594887633434</v>
+      </c>
+      <c r="F70">
+        <v>-0.1828907663351497</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1257663822467744</v>
+        <v>0.1372340695560951</v>
       </c>
       <c r="C71">
-        <v>-0.03036541797885508</v>
+        <v>0.03923364788966734</v>
       </c>
       <c r="D71">
-        <v>0.2802818062295276</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2704304610545495</v>
+      </c>
+      <c r="E71">
+        <v>-0.09790242214912349</v>
+      </c>
+      <c r="F71">
+        <v>0.005651944376365206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1370596987010426</v>
+        <v>0.1440115296224067</v>
       </c>
       <c r="C72">
-        <v>-0.02933628762964562</v>
+        <v>0.02962483309835522</v>
       </c>
       <c r="D72">
-        <v>5.711255656733651e-05</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.003468138676476918</v>
+      </c>
+      <c r="E72">
+        <v>0.03955265620915638</v>
+      </c>
+      <c r="F72">
+        <v>0.02819870734304262</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2030773743303147</v>
+        <v>0.2039662232691471</v>
       </c>
       <c r="C73">
-        <v>-0.01901768828472377</v>
+        <v>0.01529087396086822</v>
       </c>
       <c r="D73">
-        <v>-0.007443903240890884</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.01775832499447405</v>
+      </c>
+      <c r="E73">
+        <v>0.06375018266585114</v>
+      </c>
+      <c r="F73">
+        <v>0.04392345684657331</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09140025680927941</v>
+        <v>0.09236777678553898</v>
       </c>
       <c r="C74">
-        <v>-0.01497932730927117</v>
+        <v>0.01437758879049405</v>
       </c>
       <c r="D74">
-        <v>-0.01449394558573853</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.01694120057831189</v>
+      </c>
+      <c r="E74">
+        <v>0.04199465541244456</v>
+      </c>
+      <c r="F74">
+        <v>0.05279455280968252</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1334282329698827</v>
+        <v>0.125719962640612</v>
       </c>
       <c r="C75">
-        <v>-0.03250585188871136</v>
+        <v>0.03057079503713972</v>
       </c>
       <c r="D75">
-        <v>-0.02401144083879984</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.0297137779738505</v>
+      </c>
+      <c r="E75">
+        <v>0.05560794352061249</v>
+      </c>
+      <c r="F75">
+        <v>0.02162757572019241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08200772194197896</v>
+        <v>0.09244676881181546</v>
       </c>
       <c r="C77">
-        <v>-0.01472977959299081</v>
+        <v>0.009347615453894025</v>
       </c>
       <c r="D77">
-        <v>-0.1134373037368519</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1169725320351252</v>
+      </c>
+      <c r="E77">
+        <v>0.04698475753385666</v>
+      </c>
+      <c r="F77">
+        <v>0.03626894956202906</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1026480254825502</v>
+        <v>0.1025035278961499</v>
       </c>
       <c r="C78">
-        <v>-0.04538711327982349</v>
+        <v>0.04106418082687407</v>
       </c>
       <c r="D78">
-        <v>-0.1124647883251423</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.1123758205198258</v>
+      </c>
+      <c r="E78">
+        <v>0.07368102449735518</v>
+      </c>
+      <c r="F78">
+        <v>0.05121727783952593</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1665076082808912</v>
+        <v>0.1633745151952115</v>
       </c>
       <c r="C79">
-        <v>-0.02746028027541918</v>
+        <v>0.0262523421483018</v>
       </c>
       <c r="D79">
-        <v>-0.006496025103233869</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.01214902096722889</v>
+      </c>
+      <c r="E79">
+        <v>0.04321069279562217</v>
+      </c>
+      <c r="F79">
+        <v>0.01321925732953151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08139875773602989</v>
+        <v>0.07974773984334206</v>
       </c>
       <c r="C80">
-        <v>-0.003060566912885948</v>
+        <v>0.0001288336459670959</v>
       </c>
       <c r="D80">
-        <v>-0.05306041684250448</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.05396564428992083</v>
+      </c>
+      <c r="E80">
+        <v>0.03624124715544231</v>
+      </c>
+      <c r="F80">
+        <v>-0.02725051049000863</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1203601827981035</v>
+        <v>0.1154551405513165</v>
       </c>
       <c r="C81">
-        <v>-0.03435723683458607</v>
+        <v>0.03384809416246893</v>
       </c>
       <c r="D81">
-        <v>-0.008313934670962603</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01223336920854741</v>
+      </c>
+      <c r="E81">
+        <v>0.05257149926017872</v>
+      </c>
+      <c r="F81">
+        <v>0.0184807150259581</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1657061575972334</v>
+        <v>0.1644841148422091</v>
       </c>
       <c r="C82">
-        <v>-0.02788383233189361</v>
+        <v>0.02832163759950221</v>
       </c>
       <c r="D82">
-        <v>-0.006691475347180698</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.003414790168031544</v>
+      </c>
+      <c r="E82">
+        <v>0.02551795992654094</v>
+      </c>
+      <c r="F82">
+        <v>0.08316441106039184</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06245170287301671</v>
+        <v>0.05627321452507882</v>
       </c>
       <c r="C83">
-        <v>-0.005936867933272358</v>
+        <v>0.003553834313894993</v>
       </c>
       <c r="D83">
-        <v>-0.04256918259234325</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.04590754774236487</v>
+      </c>
+      <c r="E83">
+        <v>0.003482714133030713</v>
+      </c>
+      <c r="F83">
+        <v>-0.03670044468839297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05993221542799126</v>
+        <v>0.05467925773306698</v>
       </c>
       <c r="C84">
-        <v>-0.01362732673541051</v>
+        <v>0.01084359714880867</v>
       </c>
       <c r="D84">
-        <v>-0.07044598869771496</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.07327807680349407</v>
+      </c>
+      <c r="E84">
+        <v>0.01200442499425224</v>
+      </c>
+      <c r="F84">
+        <v>0.01530360799144153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1399085954938038</v>
+        <v>0.1351695594121488</v>
       </c>
       <c r="C85">
-        <v>-0.03151777027889521</v>
+        <v>0.03099734134986349</v>
       </c>
       <c r="D85">
-        <v>-0.006788174793181925</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.009528892217136977</v>
+      </c>
+      <c r="E85">
+        <v>0.03520078972414549</v>
+      </c>
+      <c r="F85">
+        <v>0.04908422019177577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.100313272593897</v>
+        <v>0.09291753018389033</v>
       </c>
       <c r="C86">
-        <v>0.001822491790017464</v>
+        <v>-0.005154492375510388</v>
       </c>
       <c r="D86">
-        <v>-0.01645192815968912</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.05220238332180255</v>
+      </c>
+      <c r="E86">
+        <v>0.2352555223558506</v>
+      </c>
+      <c r="F86">
+        <v>-0.8944588294481826</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.0961107165552315</v>
+        <v>0.09220436538329239</v>
       </c>
       <c r="C87">
-        <v>-0.02890666032575031</v>
+        <v>0.02069612328952031</v>
       </c>
       <c r="D87">
-        <v>-0.07144162944615007</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.0926107604457405</v>
+      </c>
+      <c r="E87">
+        <v>-0.05386385662817778</v>
+      </c>
+      <c r="F87">
+        <v>0.0474542546159738</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06266690700216128</v>
+        <v>0.06092820691839054</v>
       </c>
       <c r="C88">
-        <v>-0.006059973507128007</v>
+        <v>0.003090902538374429</v>
       </c>
       <c r="D88">
-        <v>-0.04899042652489892</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04954703349082975</v>
+      </c>
+      <c r="E88">
+        <v>0.0249833256437247</v>
+      </c>
+      <c r="F88">
+        <v>0.01414366733823027</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1178590359583565</v>
+        <v>0.1271136753679329</v>
       </c>
       <c r="C89">
-        <v>-0.006475851269031043</v>
+        <v>0.01458410302657591</v>
       </c>
       <c r="D89">
-        <v>0.240971469241277</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.2420161508968001</v>
+      </c>
+      <c r="E89">
+        <v>-0.08930362441041551</v>
+      </c>
+      <c r="F89">
+        <v>-0.008338083118861377</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1381314840558999</v>
+        <v>0.1526262901380698</v>
       </c>
       <c r="C90">
-        <v>-0.02668566102877124</v>
+        <v>0.03596696306043957</v>
       </c>
       <c r="D90">
-        <v>0.2664716025130971</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.2671417066177807</v>
+      </c>
+      <c r="E90">
+        <v>-0.1132715694015444</v>
+      </c>
+      <c r="F90">
+        <v>-0.009375128848621461</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1216257121141731</v>
+        <v>0.1197499380682734</v>
       </c>
       <c r="C91">
-        <v>-0.02213529652228863</v>
+        <v>0.02223463521224153</v>
       </c>
       <c r="D91">
-        <v>0.02061910096272052</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.01738068795898424</v>
+      </c>
+      <c r="E91">
+        <v>0.05344456603936511</v>
+      </c>
+      <c r="F91">
+        <v>-0.00140812881590921</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1385608957142158</v>
+        <v>0.1451724526896847</v>
       </c>
       <c r="C92">
-        <v>-0.01746164319779927</v>
+        <v>0.02689525857627447</v>
       </c>
       <c r="D92">
-        <v>0.297637308696273</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.2934175859702135</v>
+      </c>
+      <c r="E92">
+        <v>-0.1014801706520417</v>
+      </c>
+      <c r="F92">
+        <v>-0.01947379857053834</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1414104144896767</v>
+        <v>0.1542074889498177</v>
       </c>
       <c r="C93">
-        <v>-0.02293281138495351</v>
+        <v>0.03117381043669674</v>
       </c>
       <c r="D93">
-        <v>0.2651733508938271</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2634803318261726</v>
+      </c>
+      <c r="E93">
+        <v>-0.0737471787229706</v>
+      </c>
+      <c r="F93">
+        <v>0.002746581929071905</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1333751831783597</v>
+        <v>0.1257130666119767</v>
       </c>
       <c r="C94">
-        <v>-0.02891684065373326</v>
+        <v>0.0265808652253974</v>
       </c>
       <c r="D94">
-        <v>-0.03908730288416709</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04131187932637504</v>
+      </c>
+      <c r="E94">
+        <v>0.05718550020533208</v>
+      </c>
+      <c r="F94">
+        <v>0.03220953991506895</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1278158825783071</v>
+        <v>0.1302433873566748</v>
       </c>
       <c r="C95">
-        <v>-0.01113258662398566</v>
+        <v>0.005723246352211261</v>
       </c>
       <c r="D95">
-        <v>-0.0878554031113719</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09887018442093007</v>
+      </c>
+      <c r="E95">
+        <v>0.05949200535567741</v>
+      </c>
+      <c r="F95">
+        <v>0.004193721088151675</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1330532938747933</v>
+        <v>0.1254005086438175</v>
       </c>
       <c r="C96">
-        <v>0.985390681210991</v>
+        <v>-0.985375589882006</v>
       </c>
       <c r="D96">
-        <v>0.01890545837866133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>-0.04999099748938139</v>
+      </c>
+      <c r="E96">
+        <v>0.05042726329700092</v>
+      </c>
+      <c r="F96">
+        <v>0.04324801878324679</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1924978966641178</v>
+        <v>0.1958959187245832</v>
       </c>
       <c r="C97">
-        <v>0.00208780560451864</v>
+        <v>-0.002330381887253252</v>
       </c>
       <c r="D97">
-        <v>0.03121621471539877</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.03037027906843675</v>
+      </c>
+      <c r="E97">
+        <v>0.03178572052229291</v>
+      </c>
+      <c r="F97">
+        <v>-0.118194788071951</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.200721443117505</v>
+        <v>0.2063479477243193</v>
       </c>
       <c r="C98">
-        <v>-0.01403074638130065</v>
+        <v>0.01009567997339771</v>
       </c>
       <c r="D98">
-        <v>-0.01178264588631903</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01389876158438867</v>
+      </c>
+      <c r="E98">
+        <v>-0.07768025886999035</v>
+      </c>
+      <c r="F98">
+        <v>-0.0961198465650277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05615757149322576</v>
+        <v>0.0554297875869195</v>
       </c>
       <c r="C99">
-        <v>0.001367311006068719</v>
+        <v>-0.003474077048803336</v>
       </c>
       <c r="D99">
-        <v>-0.03241602103779993</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.0395450383444385</v>
+      </c>
+      <c r="E99">
+        <v>0.02308899911257882</v>
+      </c>
+      <c r="F99">
+        <v>0.003572727727037035</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.147319758175084</v>
+        <v>0.1333740953737877</v>
       </c>
       <c r="C100">
-        <v>0.03651709029387942</v>
+        <v>-0.04860321905642864</v>
       </c>
       <c r="D100">
-        <v>-0.39227428871061</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>0.3556333843639618</v>
+      </c>
+      <c r="E100">
+        <v>-0.881878741834038</v>
+      </c>
+      <c r="F100">
+        <v>-0.1618327192829391</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02607414157490522</v>
+        <v>0.02867310736390936</v>
       </c>
       <c r="C101">
-        <v>-0.01007575257787426</v>
+        <v>0.009291833360891956</v>
       </c>
       <c r="D101">
-        <v>-0.02866899099352201</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02950017820120164</v>
+      </c>
+      <c r="E101">
+        <v>0.01715566892004157</v>
+      </c>
+      <c r="F101">
+        <v>-0.01400340820452448</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
